--- a/data/management/Management_information_KIE_2018.xlsx
+++ b/data/management/Management_information_KIE_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6447A9-3157-D649-99BA-3EEB459C6349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705ACB9B-9DDB-0745-807D-3E41F332F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="116">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -243,9 +243,6 @@
     <t>Hohenschulen, Achterwehr</t>
   </si>
   <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Kieserit</t>
-  </si>
-  <si>
     <t>Sowing density</t>
   </si>
   <si>
@@ -300,12 +294,6 @@
     <t>1 - 4%</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>Bittersalz</t>
-  </si>
-  <si>
     <t>Kantik</t>
   </si>
   <si>
@@ -385,6 +373,9 @@
   </si>
   <si>
     <t>low nitrogen, with fungicide (LN_WF)</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -899,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -965,7 +956,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,7 +992,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1017,7 +1008,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,31 +1016,31 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -1085,7 +1076,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -1094,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1103,7 +1094,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -1112,7 +1103,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -1121,7 +1112,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -1137,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -1184,7 +1175,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -1193,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="14">
         <v>41518</v>
@@ -1204,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="14">
         <v>41518</v>
@@ -1215,7 +1206,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1"/>
     </row>
@@ -1224,10 +1215,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1235,10 +1226,10 @@
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1246,10 +1237,10 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1257,10 +1248,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1268,7 +1259,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -1298,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>6</v>
@@ -1310,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>6</v>
@@ -1336,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
@@ -1345,10 +1336,10 @@
         <v>43038</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>57</v>
@@ -1369,7 +1360,7 @@
         <v>30</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
@@ -1392,13 +1383,13 @@
       <c r="C49" s="11"/>
       <c r="D49" s="6"/>
       <c r="E49" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -1411,23 +1402,15 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="11">
-        <v>43186</v>
-      </c>
-      <c r="D50" s="6">
-        <v>150</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -1441,20 +1424,14 @@
         <v>54</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="11">
-        <v>43224</v>
-      </c>
-      <c r="D51" s="6">
-        <v>5</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -1473,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -1492,7 +1469,7 @@
         <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -1514,10 +1491,10 @@
         <v>43224</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -1537,10 +1514,10 @@
         <v>43235</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -1556,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>6</v>
@@ -1568,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>6</v>
@@ -1582,7 +1559,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -1594,7 +1571,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
@@ -1603,10 +1580,10 @@
         <v>43038</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>57</v>
@@ -1615,7 +1592,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>8</v>
@@ -1627,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
@@ -1636,10 +1613,10 @@
         <v>42866</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>58</v>
@@ -1648,7 +1625,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
@@ -1656,13 +1633,13 @@
       <c r="C60" s="11"/>
       <c r="D60" s="6"/>
       <c r="E60" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -1673,25 +1650,17 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="11">
-        <v>43186</v>
-      </c>
-      <c r="D61" s="6">
-        <v>150</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -1702,18 +1671,12 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="11">
-        <v>43224</v>
-      </c>
-      <c r="D62" s="6">
-        <v>5</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="7" t="s">
         <v>15</v>
       </c>
@@ -1721,17 +1684,17 @@
         <v>42833</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="11"/>
@@ -1744,17 +1707,17 @@
         <v>42866</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
@@ -1767,7 +1730,7 @@
         <v>42900</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="8"/>
@@ -1775,7 +1738,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1788,17 +1751,17 @@
         <v>43224</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1811,10 +1774,10 @@
         <v>43235</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -1830,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>6</v>
@@ -1842,7 +1805,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>6</v>
@@ -1868,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
@@ -1877,10 +1840,10 @@
         <v>43038</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>57</v>
@@ -1901,13 +1864,13 @@
         <v>80</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -1930,13 +1893,13 @@
         <v>60</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -1949,23 +1912,15 @@
       <c r="A72" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="11">
-        <v>43186</v>
-      </c>
-      <c r="D72" s="6">
-        <v>150</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -1979,20 +1934,14 @@
         <v>61</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="11">
-        <v>43224</v>
-      </c>
-      <c r="D73" s="6">
-        <v>5</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -2011,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -2030,7 +1979,7 @@
         <v>17</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -2052,10 +2001,10 @@
         <v>43224</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -2075,10 +2024,10 @@
         <v>43235</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -2094,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>6</v>
@@ -2106,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>6</v>
@@ -2132,7 +2081,7 @@
         <v>50</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
@@ -2141,10 +2090,10 @@
         <v>43038</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>57</v>
@@ -2165,7 +2114,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>12</v>
@@ -2174,10 +2123,10 @@
         <v>42866</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>58</v>
@@ -2198,13 +2147,13 @@
         <v>60</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -2217,23 +2166,15 @@
       <c r="A83" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="11">
-        <v>43186</v>
-      </c>
-      <c r="D83" s="6">
-        <v>150</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -2247,15 +2188,9 @@
         <v>66</v>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="11">
-        <v>43224</v>
-      </c>
-      <c r="D84" s="6">
-        <v>5</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
@@ -2263,10 +2198,10 @@
         <v>42833</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -2286,10 +2221,10 @@
         <v>42866</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -2309,7 +2244,7 @@
         <v>42900</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="8"/>
@@ -2330,10 +2265,10 @@
         <v>43224</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -2353,10 +2288,10 @@
         <v>43235</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>

--- a/data/management/Management_information_KIE_2018.xlsx
+++ b/data/management/Management_information_KIE_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705ACB9B-9DDB-0745-807D-3E41F332F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A51AEF-F394-1D47-BC89-9603B94E1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,9 +264,6 @@
     <t>oilseed rape</t>
   </si>
   <si>
-    <t>winterbarley</t>
-  </si>
-  <si>
     <t>15 (mg/100g)</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>winter barley</t>
   </si>
 </sst>
 </file>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,7 +956,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1016,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -1076,7 +1076,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -1085,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1094,7 +1094,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -1112,7 +1112,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -1175,7 +1175,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -1184,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="14">
         <v>41518</v>
@@ -1195,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="14">
         <v>41518</v>
@@ -1206,7 +1206,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1"/>
     </row>
@@ -1215,10 +1215,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1226,10 +1226,10 @@
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1248,10 +1248,10 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1"/>
     </row>
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>6</v>
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>6</v>
@@ -1327,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
@@ -1336,10 +1336,10 @@
         <v>43038</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>57</v>
@@ -1360,7 +1360,7 @@
         <v>30</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
@@ -1491,10 +1491,10 @@
         <v>43224</v>
       </c>
       <c r="H54" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -1514,10 +1514,10 @@
         <v>43235</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -1533,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>6</v>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>6</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -1571,7 +1571,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>11</v>
@@ -1580,10 +1580,10 @@
         <v>43038</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>57</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>8</v>
@@ -1604,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
@@ -1613,10 +1613,10 @@
         <v>42866</v>
       </c>
       <c r="H59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>58</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="11"/>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="11"/>
@@ -1684,17 +1684,17 @@
         <v>42833</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="11"/>
@@ -1707,17 +1707,17 @@
         <v>42866</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1751,17 +1751,17 @@
         <v>43224</v>
       </c>
       <c r="H65" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1774,10 +1774,10 @@
         <v>43235</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>6</v>
@@ -1805,7 +1805,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>6</v>
@@ -1831,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
@@ -1840,10 +1840,10 @@
         <v>43038</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>57</v>
@@ -1864,7 +1864,7 @@
         <v>80</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
@@ -1893,7 +1893,7 @@
         <v>60</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
@@ -2001,10 +2001,10 @@
         <v>43224</v>
       </c>
       <c r="H76" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -2024,10 +2024,10 @@
         <v>43235</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>6</v>
@@ -2055,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>6</v>
@@ -2081,7 +2081,7 @@
         <v>50</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>11</v>
@@ -2090,10 +2090,10 @@
         <v>43038</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>57</v>
@@ -2114,7 +2114,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>12</v>
@@ -2123,10 +2123,10 @@
         <v>42866</v>
       </c>
       <c r="H81" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>58</v>
@@ -2147,7 +2147,7 @@
         <v>60</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>13</v>
@@ -2198,10 +2198,10 @@
         <v>42833</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -2221,10 +2221,10 @@
         <v>42866</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -2265,10 +2265,10 @@
         <v>43224</v>
       </c>
       <c r="H87" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -2288,10 +2288,10 @@
         <v>43235</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
